--- a/biology/Zoologie/Agriades_jaloka/Agriades_jaloka.xlsx
+++ b/biology/Zoologie/Agriades_jaloka/Agriades_jaloka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriades jaloka est une espèce de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Agriades jaloka a été décrite en 1875 par l'entomologiste britannique Frederic Moore, sous le nom initial de Polyommatus jaloka[1].
-Au moins une sous-espèce a été décrite : Agriades jaloka marlene (Hemming, 1934)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agriades jaloka a été décrite en 1875 par l'entomologiste britannique Frederic Moore, sous le nom initial de Polyommatus jaloka.
+Au moins une sous-espèce a été décrite : Agriades jaloka marlene (Hemming, 1934).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago d’Agriades jaloka est un petit papillon dont le dessus des ailes est bleu argenté bordé de marron chez le mâle, et marron chez la femelle ; les ailes sont bordées d'une frange blanche[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Agriades jaloka est un petit papillon dont le dessus des ailes est bleu argenté bordé de marron chez le mâle, et marron chez la femelle ; les ailes sont bordées d'une frange blanche.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agriades jaloka n'est présent que dans le Nord-Ouest de l'Himalaya, le Baltistan et le Cachemire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agriades jaloka n'est présent que dans le Nord-Ouest de l'Himalaya, le Baltistan et le Cachemire.
 </t>
         </is>
       </c>
